--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>987.8624116539927</v>
+        <v>0.1436078246</v>
       </c>
       <c r="R2">
-        <v>8890.761704885936</v>
+        <v>1.2924704214</v>
       </c>
       <c r="S2">
-        <v>0.008111416898417545</v>
+        <v>1.442934664193658E-06</v>
       </c>
       <c r="T2">
-        <v>0.008111416898417547</v>
+        <v>1.442934664193657E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>14132.5340849654</v>
+        <v>12.5314861771</v>
       </c>
       <c r="R3">
-        <v>127192.8067646886</v>
+        <v>112.7833755939</v>
       </c>
       <c r="S3">
-        <v>0.116043362356824</v>
+        <v>0.0001259131655894553</v>
       </c>
       <c r="T3">
-        <v>0.116043362356824</v>
+        <v>0.0001259131655894552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>2161.82913475008</v>
+        <v>1.91691962365</v>
       </c>
       <c r="R4">
-        <v>19456.46221275072</v>
+        <v>17.25227661285</v>
       </c>
       <c r="S4">
-        <v>0.01775095111245627</v>
+        <v>1.926071772998395E-05</v>
       </c>
       <c r="T4">
-        <v>0.01775095111245628</v>
+        <v>1.926071772998395E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>5969.889295330147</v>
+        <v>978.7355936985567</v>
       </c>
       <c r="R5">
-        <v>53729.00365797133</v>
+        <v>8808.620343287012</v>
       </c>
       <c r="S5">
-        <v>0.04901923622212279</v>
+        <v>0.009834084731534937</v>
       </c>
       <c r="T5">
-        <v>0.04901923622212279</v>
+        <v>0.009834084731534935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>85406.29034407939</v>
@@ -818,10 +818,10 @@
         <v>768656.6130967146</v>
       </c>
       <c r="S6">
-        <v>0.7012778485702401</v>
+        <v>0.8581405450637278</v>
       </c>
       <c r="T6">
-        <v>0.7012778485702402</v>
+        <v>0.8581405450637277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>13064.45154469318</v>
@@ -880,10 +880,10 @@
         <v>117580.0639022386</v>
       </c>
       <c r="S7">
-        <v>0.1072732515965987</v>
+        <v>0.1312682651869665</v>
       </c>
       <c r="T7">
-        <v>0.1072732515965987</v>
+        <v>0.1312682651869664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>3.647308364300222</v>
+        <v>0.5979592486124443</v>
       </c>
       <c r="R8">
-        <v>32.825775278702</v>
+        <v>5.381633237511999</v>
       </c>
       <c r="S8">
-        <v>2.994833931416638E-05</v>
+        <v>6.008141478372407E-06</v>
       </c>
       <c r="T8">
-        <v>2.994833931416638E-05</v>
+        <v>6.008141478372405E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>52.17903745375688</v>
@@ -1004,10 +1004,10 @@
         <v>469.611337083812</v>
       </c>
       <c r="S9">
-        <v>0.0004284462301151015</v>
+        <v>0.0005242816127602909</v>
       </c>
       <c r="T9">
-        <v>0.0004284462301151015</v>
+        <v>0.0005242816127602907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>7.981736517497557</v>
@@ -1066,10 +1066,10 @@
         <v>71.83562865747801</v>
       </c>
       <c r="S10">
-        <v>6.55386739114262E-05</v>
+        <v>8.019844554875035E-05</v>
       </c>
       <c r="T10">
-        <v>6.55386739114262E-05</v>
+        <v>8.019844554875033E-05</v>
       </c>
     </row>
   </sheetData>
